--- a/Win32/Binaries/Table/servantassisbattle.xlsx
+++ b/Win32/Binaries/Table/servantassisbattle.xlsx
@@ -9,14 +9,16 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>助阵位id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -83,6 +85,10 @@
   </si>
   <si>
     <t>power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -156,6 +162,331 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="期望属性"/>
+      <sheetName val="各属性战力划分"/>
+      <sheetName val="全系统性价比"/>
+      <sheetName val="裸属性"/>
+      <sheetName val="装备属性分配"/>
+      <sheetName val="宝石"/>
+      <sheetName val="界石"/>
+      <sheetName val="韵纹"/>
+      <sheetName val="佣兵"/>
+      <sheetName val="时装"/>
+      <sheetName val="佣兵组合"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="23">
+          <cell r="E23">
+            <v>4</v>
+          </cell>
+          <cell r="F23">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="E24">
+            <v>5</v>
+          </cell>
+          <cell r="F24">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="E25">
+            <v>6</v>
+          </cell>
+          <cell r="F25">
+            <v>0.77</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="E26">
+            <v>7</v>
+          </cell>
+          <cell r="F26">
+            <v>0.77</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="E27">
+            <v>1</v>
+          </cell>
+          <cell r="F27">
+            <v>5.3999999999999999E-2</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="E28">
+            <v>2</v>
+          </cell>
+          <cell r="F28">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="E29">
+            <v>3</v>
+          </cell>
+          <cell r="F29">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="E30">
+            <v>16</v>
+          </cell>
+          <cell r="F30">
+            <v>2.5</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>10</v>
+          </cell>
+          <cell r="F31">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>9</v>
+          </cell>
+          <cell r="F32">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="E33">
+            <v>23</v>
+          </cell>
+          <cell r="F33">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="E34">
+            <v>25</v>
+          </cell>
+          <cell r="F34">
+            <v>0.7</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="E35">
+            <v>24</v>
+          </cell>
+          <cell r="F35">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="E36">
+            <v>0</v>
+          </cell>
+          <cell r="F36">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="E37">
+            <v>0</v>
+          </cell>
+          <cell r="F37">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="E38">
+            <v>0</v>
+          </cell>
+          <cell r="F38">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4">
+        <row r="160">
+          <cell r="J160">
+            <v>54720</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="8">
+          <cell r="R8">
+            <v>360</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="42">
+          <cell r="S42">
+            <v>6124</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1">
+        <row r="70">
+          <cell r="B70">
+            <v>274</v>
+          </cell>
+          <cell r="C70">
+            <v>274</v>
+          </cell>
+          <cell r="D70">
+            <v>153</v>
+          </cell>
+          <cell r="E70">
+            <v>153</v>
+          </cell>
+          <cell r="F70">
+            <v>7896</v>
+          </cell>
+          <cell r="G70">
+            <v>296</v>
+          </cell>
+          <cell r="H70">
+            <v>94</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71">
+            <v>548</v>
+          </cell>
+          <cell r="C71">
+            <v>548</v>
+          </cell>
+          <cell r="D71">
+            <v>306</v>
+          </cell>
+          <cell r="E71">
+            <v>306</v>
+          </cell>
+          <cell r="F71">
+            <v>15792</v>
+          </cell>
+          <cell r="G71">
+            <v>592</v>
+          </cell>
+          <cell r="H71">
+            <v>188</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72">
+            <v>822</v>
+          </cell>
+          <cell r="C72">
+            <v>822</v>
+          </cell>
+          <cell r="D72">
+            <v>459</v>
+          </cell>
+          <cell r="E72">
+            <v>459</v>
+          </cell>
+          <cell r="F72">
+            <v>23688</v>
+          </cell>
+          <cell r="G72">
+            <v>888</v>
+          </cell>
+          <cell r="H72">
+            <v>282</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73">
+            <v>1096</v>
+          </cell>
+          <cell r="C73">
+            <v>1096</v>
+          </cell>
+          <cell r="D73">
+            <v>612</v>
+          </cell>
+          <cell r="E73">
+            <v>612</v>
+          </cell>
+          <cell r="F73">
+            <v>31584</v>
+          </cell>
+          <cell r="G73">
+            <v>1184</v>
+          </cell>
+          <cell r="H73">
+            <v>376</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74">
+            <v>1370</v>
+          </cell>
+          <cell r="C74">
+            <v>1370</v>
+          </cell>
+          <cell r="D74">
+            <v>765</v>
+          </cell>
+          <cell r="E74">
+            <v>765</v>
+          </cell>
+          <cell r="F74">
+            <v>39480</v>
+          </cell>
+          <cell r="G74">
+            <v>1480</v>
+          </cell>
+          <cell r="H74">
+            <v>470</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75">
+            <v>1644</v>
+          </cell>
+          <cell r="C75">
+            <v>1644</v>
+          </cell>
+          <cell r="D75">
+            <v>918</v>
+          </cell>
+          <cell r="E75">
+            <v>918</v>
+          </cell>
+          <cell r="F75">
+            <v>47376</v>
+          </cell>
+          <cell r="G75">
+            <v>1776</v>
+          </cell>
+          <cell r="H75">
+            <v>564</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10">
+        <row r="4">
+          <cell r="C4">
+            <v>4057</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -448,7 +779,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:H44"/>
+      <selection activeCell="E3" sqref="E3:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -512,7 +843,6 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <f>B3*1000+C3</f>
         <v>1001</v>
       </c>
       <c r="B3" s="1">
@@ -525,21 +855,20 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>4100</v>
+        <v>1000</v>
       </c>
       <c r="F3" s="1">
         <v>4</v>
       </c>
       <c r="G3" s="1">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="H3">
-        <v>500</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A44" si="0">B4*1000+C4</f>
         <v>1002</v>
       </c>
       <c r="B4" s="1">
@@ -552,21 +881,20 @@
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>9200</v>
+        <v>3000</v>
       </c>
       <c r="F4" s="1">
         <v>4</v>
       </c>
       <c r="G4" s="1">
-        <v>500</v>
+        <v>548</v>
       </c>
       <c r="H4">
-        <v>1000</v>
+        <v>548</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <f t="shared" si="0"/>
         <v>1003</v>
       </c>
       <c r="B5" s="1">
@@ -579,21 +907,20 @@
         <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>16300</v>
+        <v>7500</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
       </c>
       <c r="G5" s="1">
-        <v>800</v>
+        <v>822</v>
       </c>
       <c r="H5">
-        <v>1600</v>
+        <v>822</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <f t="shared" si="0"/>
         <v>1004</v>
       </c>
       <c r="B6" s="1">
@@ -606,21 +933,20 @@
         <v>4</v>
       </c>
       <c r="E6" s="1">
-        <v>25400</v>
+        <v>18000</v>
       </c>
       <c r="F6" s="1">
         <v>4</v>
       </c>
       <c r="G6" s="1">
-        <v>1200</v>
+        <v>1096</v>
       </c>
       <c r="H6">
-        <v>2400</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <f t="shared" si="0"/>
         <v>1005</v>
       </c>
       <c r="B7" s="1">
@@ -633,21 +959,20 @@
         <v>5</v>
       </c>
       <c r="E7" s="1">
-        <v>36500</v>
+        <v>50000</v>
       </c>
       <c r="F7" s="1">
         <v>4</v>
       </c>
       <c r="G7" s="1">
-        <v>1800</v>
+        <v>1370</v>
       </c>
       <c r="H7">
-        <v>3600</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <f t="shared" si="0"/>
         <v>1006</v>
       </c>
       <c r="B8" s="1">
@@ -664,19 +989,17 @@
         <v>4</v>
       </c>
       <c r="G8" s="1">
-        <v>1800</v>
+        <v>1644</v>
       </c>
       <c r="H8">
-        <v>3600</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <f>B9*1000+C9</f>
         <v>2001</v>
       </c>
       <c r="B9" s="1">
-        <f>B3+1</f>
         <v>2</v>
       </c>
       <c r="C9" s="1">
@@ -686,25 +1009,23 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>4100</v>
+        <v>1500</v>
       </c>
       <c r="F9" s="1">
         <v>6</v>
       </c>
       <c r="G9" s="1">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="H9">
-        <v>500</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <f t="shared" si="0"/>
         <v>2002</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" ref="B10:B44" si="1">B4+1</f>
         <v>2</v>
       </c>
       <c r="C10" s="1">
@@ -714,25 +1035,23 @@
         <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>9200</v>
+        <v>3500</v>
       </c>
       <c r="F10" s="1">
         <v>6</v>
       </c>
       <c r="G10" s="1">
-        <v>200</v>
+        <v>306</v>
       </c>
       <c r="H10">
-        <v>1000</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <f t="shared" si="0"/>
         <v>2003</v>
       </c>
       <c r="B11" s="1">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C11" s="1">
@@ -742,25 +1061,23 @@
         <v>3</v>
       </c>
       <c r="E11" s="1">
-        <v>16300</v>
+        <v>8000</v>
       </c>
       <c r="F11" s="1">
         <v>6</v>
       </c>
       <c r="G11" s="1">
-        <v>400</v>
+        <v>459</v>
       </c>
       <c r="H11">
-        <v>1600</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <f t="shared" si="0"/>
         <v>2004</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C12" s="1">
@@ -770,25 +1087,23 @@
         <v>4</v>
       </c>
       <c r="E12" s="1">
-        <v>25400</v>
+        <v>20000</v>
       </c>
       <c r="F12" s="1">
         <v>6</v>
       </c>
       <c r="G12" s="1">
-        <v>640</v>
+        <v>612</v>
       </c>
       <c r="H12">
-        <v>2400</v>
+        <v>471</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <f t="shared" si="0"/>
         <v>2005</v>
       </c>
       <c r="B13" s="1">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C13" s="1">
@@ -798,25 +1113,23 @@
         <v>5</v>
       </c>
       <c r="E13" s="1">
-        <v>36500</v>
+        <v>55000</v>
       </c>
       <c r="F13" s="1">
         <v>6</v>
       </c>
       <c r="G13" s="1">
-        <v>960</v>
+        <v>765</v>
       </c>
       <c r="H13">
-        <v>3600</v>
+        <v>589</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <f t="shared" si="0"/>
         <v>2006</v>
       </c>
       <c r="B14" s="1">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C14" s="1">
@@ -830,19 +1143,17 @@
         <v>6</v>
       </c>
       <c r="G14" s="1">
-        <v>1440</v>
+        <v>918</v>
       </c>
       <c r="H14">
-        <v>3600</v>
+        <v>706</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <f t="shared" si="0"/>
         <v>3001</v>
       </c>
       <c r="B15" s="1">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C15" s="1">
@@ -852,25 +1163,23 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>4100</v>
+        <v>2000</v>
       </c>
       <c r="F15" s="1">
         <v>5</v>
       </c>
       <c r="G15" s="1">
-        <v>100</v>
+        <v>274</v>
       </c>
       <c r="H15">
-        <v>500</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <f t="shared" si="0"/>
         <v>3002</v>
       </c>
       <c r="B16" s="1">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C16" s="1">
@@ -880,25 +1189,23 @@
         <v>2</v>
       </c>
       <c r="E16" s="1">
-        <v>9200</v>
+        <v>4000</v>
       </c>
       <c r="F16" s="1">
         <v>5</v>
       </c>
       <c r="G16" s="1">
-        <v>250</v>
+        <v>548</v>
       </c>
       <c r="H16">
-        <v>1000</v>
+        <v>548</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <f t="shared" si="0"/>
         <v>3003</v>
       </c>
       <c r="B17" s="1">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C17" s="1">
@@ -908,25 +1215,23 @@
         <v>3</v>
       </c>
       <c r="E17" s="1">
-        <v>16300</v>
+        <v>8500</v>
       </c>
       <c r="F17" s="1">
         <v>5</v>
       </c>
       <c r="G17" s="1">
-        <v>500</v>
+        <v>822</v>
       </c>
       <c r="H17">
-        <v>1600</v>
+        <v>822</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <f t="shared" si="0"/>
         <v>3004</v>
       </c>
       <c r="B18" s="1">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C18" s="1">
@@ -936,25 +1241,23 @@
         <v>4</v>
       </c>
       <c r="E18" s="1">
-        <v>25400</v>
+        <v>20500</v>
       </c>
       <c r="F18" s="1">
         <v>5</v>
       </c>
       <c r="G18" s="1">
-        <v>800</v>
+        <v>1096</v>
       </c>
       <c r="H18">
-        <v>2400</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <f t="shared" si="0"/>
         <v>3005</v>
       </c>
       <c r="B19" s="1">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C19" s="1">
@@ -964,25 +1267,23 @@
         <v>5</v>
       </c>
       <c r="E19" s="1">
-        <v>36500</v>
+        <v>55500</v>
       </c>
       <c r="F19" s="1">
         <v>5</v>
       </c>
       <c r="G19" s="1">
-        <v>1200</v>
+        <v>1370</v>
       </c>
       <c r="H19">
-        <v>3600</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <f t="shared" si="0"/>
         <v>3006</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C20" s="1">
@@ -996,19 +1297,17 @@
         <v>5</v>
       </c>
       <c r="G20" s="1">
-        <v>1800</v>
+        <v>1644</v>
       </c>
       <c r="H20">
-        <v>3600</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <f t="shared" si="0"/>
         <v>4001</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C21" s="1">
@@ -1018,25 +1317,23 @@
         <v>1</v>
       </c>
       <c r="E21" s="1">
-        <v>4100</v>
+        <v>2500</v>
       </c>
       <c r="F21" s="1">
         <v>7</v>
       </c>
       <c r="G21" s="1">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="H21">
-        <v>500</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <f t="shared" si="0"/>
         <v>4002</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C22" s="1">
@@ -1046,25 +1343,23 @@
         <v>2</v>
       </c>
       <c r="E22" s="1">
-        <v>9200</v>
+        <v>4500</v>
       </c>
       <c r="F22" s="1">
         <v>7</v>
       </c>
       <c r="G22" s="1">
-        <v>200</v>
+        <v>306</v>
       </c>
       <c r="H22">
-        <v>1000</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <f t="shared" si="0"/>
         <v>4003</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C23" s="1">
@@ -1074,25 +1369,23 @@
         <v>3</v>
       </c>
       <c r="E23" s="1">
-        <v>16300</v>
+        <v>9000</v>
       </c>
       <c r="F23" s="1">
         <v>7</v>
       </c>
       <c r="G23" s="1">
-        <v>400</v>
+        <v>459</v>
       </c>
       <c r="H23">
-        <v>1600</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <f t="shared" si="0"/>
         <v>4004</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C24" s="1">
@@ -1102,25 +1395,23 @@
         <v>4</v>
       </c>
       <c r="E24" s="1">
-        <v>25400</v>
+        <v>21000</v>
       </c>
       <c r="F24" s="1">
         <v>7</v>
       </c>
       <c r="G24" s="1">
-        <v>640</v>
+        <v>612</v>
       </c>
       <c r="H24">
-        <v>2400</v>
+        <v>471</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <f t="shared" si="0"/>
         <v>4005</v>
       </c>
       <c r="B25" s="1">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C25" s="1">
@@ -1130,25 +1421,23 @@
         <v>5</v>
       </c>
       <c r="E25" s="1">
-        <v>36500</v>
+        <v>56000</v>
       </c>
       <c r="F25" s="1">
         <v>7</v>
       </c>
       <c r="G25" s="1">
-        <v>960</v>
+        <v>765</v>
       </c>
       <c r="H25">
-        <v>3600</v>
+        <v>589</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <f t="shared" si="0"/>
         <v>4006</v>
       </c>
       <c r="B26" s="1">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C26" s="1">
@@ -1162,19 +1451,17 @@
         <v>7</v>
       </c>
       <c r="G26" s="1">
-        <v>1440</v>
+        <v>918</v>
       </c>
       <c r="H26">
-        <v>3600</v>
+        <v>706</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <f t="shared" si="0"/>
         <v>5001</v>
       </c>
       <c r="B27" s="1">
-        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C27" s="1">
@@ -1184,25 +1471,23 @@
         <v>1</v>
       </c>
       <c r="E27" s="1">
-        <v>4100</v>
+        <v>3000</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
       </c>
       <c r="G27" s="1">
-        <v>3000</v>
+        <v>7896</v>
       </c>
       <c r="H27">
-        <v>500</v>
+        <v>426</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <f t="shared" si="0"/>
         <v>5002</v>
       </c>
       <c r="B28" s="1">
-        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C28" s="1">
@@ -1212,25 +1497,23 @@
         <v>2</v>
       </c>
       <c r="E28" s="1">
-        <v>9200</v>
+        <v>5000</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
       </c>
       <c r="G28" s="1">
-        <v>7500</v>
+        <v>15792</v>
       </c>
       <c r="H28">
-        <v>1000</v>
+        <v>852</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <f t="shared" si="0"/>
         <v>5003</v>
       </c>
       <c r="B29" s="1">
-        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C29" s="1">
@@ -1240,25 +1523,23 @@
         <v>3</v>
       </c>
       <c r="E29" s="1">
-        <v>16300</v>
+        <v>9500</v>
       </c>
       <c r="F29" s="1">
         <v>1</v>
       </c>
       <c r="G29" s="1">
-        <v>15000</v>
+        <v>23688</v>
       </c>
       <c r="H29">
-        <v>1600</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <f t="shared" si="0"/>
         <v>5004</v>
       </c>
       <c r="B30" s="1">
-        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C30" s="1">
@@ -1268,25 +1549,23 @@
         <v>4</v>
       </c>
       <c r="E30" s="1">
-        <v>25400</v>
+        <v>21500</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
       </c>
       <c r="G30" s="1">
-        <v>24000</v>
+        <v>31584</v>
       </c>
       <c r="H30">
-        <v>2400</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <f t="shared" si="0"/>
         <v>5005</v>
       </c>
       <c r="B31" s="1">
-        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C31" s="1">
@@ -1296,25 +1575,23 @@
         <v>5</v>
       </c>
       <c r="E31" s="1">
-        <v>36500</v>
+        <v>56500</v>
       </c>
       <c r="F31" s="1">
         <v>1</v>
       </c>
       <c r="G31" s="1">
-        <v>36000</v>
+        <v>39480</v>
       </c>
       <c r="H31">
-        <v>3600</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <f t="shared" si="0"/>
         <v>5006</v>
       </c>
       <c r="B32" s="1">
-        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C32" s="1">
@@ -1328,19 +1605,17 @@
         <v>1</v>
       </c>
       <c r="G32" s="1">
-        <v>54000</v>
+        <v>47376</v>
       </c>
       <c r="H32">
-        <v>3600</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <f t="shared" si="0"/>
         <v>6001</v>
       </c>
       <c r="B33" s="1">
-        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C33" s="1">
@@ -1350,25 +1625,23 @@
         <v>1</v>
       </c>
       <c r="E33" s="1">
-        <v>4100</v>
+        <v>3500</v>
       </c>
       <c r="F33" s="1">
         <v>23</v>
       </c>
       <c r="G33" s="1">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H33">
-        <v>500</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <f t="shared" si="0"/>
         <v>6002</v>
       </c>
       <c r="B34" s="1">
-        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C34" s="1">
@@ -1378,25 +1651,23 @@
         <v>2</v>
       </c>
       <c r="E34" s="1">
-        <v>9200</v>
+        <v>5500</v>
       </c>
       <c r="F34" s="1">
         <v>23</v>
       </c>
       <c r="G34" s="1">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="H34">
-        <v>1000</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <f t="shared" si="0"/>
         <v>6003</v>
       </c>
       <c r="B35" s="1">
-        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C35" s="1">
@@ -1406,25 +1677,23 @@
         <v>3</v>
       </c>
       <c r="E35" s="1">
-        <v>16300</v>
+        <v>10000</v>
       </c>
       <c r="F35" s="1">
         <v>23</v>
       </c>
       <c r="G35" s="1">
-        <v>500</v>
+        <v>282</v>
       </c>
       <c r="H35">
-        <v>1600</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <f t="shared" si="0"/>
         <v>6004</v>
       </c>
       <c r="B36" s="1">
-        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C36" s="1">
@@ -1434,25 +1703,23 @@
         <v>4</v>
       </c>
       <c r="E36" s="1">
-        <v>25400</v>
+        <v>22000</v>
       </c>
       <c r="F36" s="1">
         <v>23</v>
       </c>
       <c r="G36" s="1">
-        <v>800</v>
+        <v>376</v>
       </c>
       <c r="H36">
-        <v>2400</v>
+        <v>376</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <f t="shared" si="0"/>
         <v>6005</v>
       </c>
       <c r="B37" s="1">
-        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C37" s="1">
@@ -1462,25 +1729,23 @@
         <v>5</v>
       </c>
       <c r="E37" s="1">
-        <v>36500</v>
+        <v>57000</v>
       </c>
       <c r="F37" s="1">
         <v>23</v>
       </c>
       <c r="G37" s="1">
-        <v>1200</v>
+        <v>470</v>
       </c>
       <c r="H37">
-        <v>3600</v>
+        <v>470</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <f t="shared" si="0"/>
         <v>6006</v>
       </c>
       <c r="B38" s="1">
-        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C38" s="1">
@@ -1494,19 +1759,17 @@
         <v>23</v>
       </c>
       <c r="G38" s="1">
-        <v>1800</v>
+        <v>564</v>
       </c>
       <c r="H38">
-        <v>3600</v>
+        <v>564</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <f t="shared" si="0"/>
         <v>7001</v>
       </c>
       <c r="B39" s="1">
-        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C39" s="1">
@@ -1516,25 +1779,23 @@
         <v>1</v>
       </c>
       <c r="E39" s="1">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="F39" s="1">
         <v>3</v>
       </c>
       <c r="G39" s="1">
-        <v>120</v>
+        <v>296</v>
       </c>
       <c r="H39">
-        <v>500</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
-        <f t="shared" si="0"/>
         <v>7002</v>
       </c>
       <c r="B40" s="1">
-        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C40" s="1">
@@ -1544,25 +1805,23 @@
         <v>2</v>
       </c>
       <c r="E40" s="1">
-        <v>9200</v>
+        <v>6000</v>
       </c>
       <c r="F40" s="1">
         <v>3</v>
       </c>
       <c r="G40" s="1">
-        <v>300</v>
+        <v>592</v>
       </c>
       <c r="H40">
-        <v>1000</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
-        <f t="shared" si="0"/>
         <v>7003</v>
       </c>
       <c r="B41" s="1">
-        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C41" s="1">
@@ -1572,25 +1831,23 @@
         <v>3</v>
       </c>
       <c r="E41" s="1">
-        <v>16300</v>
+        <v>10500</v>
       </c>
       <c r="F41" s="1">
         <v>3</v>
       </c>
       <c r="G41" s="1">
-        <v>600</v>
+        <v>888</v>
       </c>
       <c r="H41">
-        <v>1600</v>
+        <v>444</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <f t="shared" si="0"/>
         <v>7004</v>
       </c>
       <c r="B42" s="1">
-        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C42" s="1">
@@ -1600,25 +1857,23 @@
         <v>4</v>
       </c>
       <c r="E42" s="1">
-        <v>25400</v>
+        <v>22500</v>
       </c>
       <c r="F42" s="1">
         <v>3</v>
       </c>
       <c r="G42" s="1">
-        <v>960</v>
+        <v>1184</v>
       </c>
       <c r="H42">
-        <v>2400</v>
+        <v>592</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
-        <f t="shared" si="0"/>
         <v>7005</v>
       </c>
       <c r="B43" s="1">
-        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C43" s="1">
@@ -1628,25 +1883,23 @@
         <v>5</v>
       </c>
       <c r="E43" s="1">
-        <v>36500</v>
+        <v>57500</v>
       </c>
       <c r="F43" s="1">
         <v>3</v>
       </c>
       <c r="G43" s="1">
-        <v>1440</v>
+        <v>1480</v>
       </c>
       <c r="H43">
-        <v>3600</v>
+        <v>740</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
-        <f t="shared" si="0"/>
         <v>7006</v>
       </c>
       <c r="B44" s="1">
-        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C44" s="1">
@@ -1660,10 +1913,10 @@
         <v>3</v>
       </c>
       <c r="G44" s="1">
-        <v>2160</v>
+        <v>1776</v>
       </c>
       <c r="H44">
-        <v>3600</v>
+        <v>888</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
@@ -1756,10 +2009,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1768,7 +2021,7 @@
     <col min="6" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1790,8 +2043,11 @@
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1813,8 +2069,11 @@
       <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <f>B3*1000+C3</f>
         <v>1001</v>
@@ -1829,16 +2088,21 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>4100</v>
+        <v>1000</v>
       </c>
       <c r="F3" s="1">
         <v>4</v>
       </c>
       <c r="G3" s="1">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$B70</f>
+        <v>274</v>
+      </c>
+      <c r="H3">
+        <f>INT(VLOOKUP(F3,[1]期望属性!$E$23:$F$38,2,0)*G3)</f>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A44" si="0">B4*1000+C4</f>
         <v>1002</v>
@@ -1853,16 +2117,21 @@
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>9200</v>
+        <v>3000</v>
       </c>
       <c r="F4" s="1">
         <v>4</v>
       </c>
       <c r="G4" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$B71</f>
+        <v>548</v>
+      </c>
+      <c r="H4">
+        <f>INT(VLOOKUP(F4,[1]期望属性!$E$23:$F$38,2,0)*G4)</f>
+        <v>548</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>1003</v>
@@ -1877,16 +2146,21 @@
         <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>16300</v>
+        <v>7500</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
       </c>
       <c r="G5" s="1">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$B72</f>
+        <v>822</v>
+      </c>
+      <c r="H5">
+        <f>INT(VLOOKUP(F5,[1]期望属性!$E$23:$F$38,2,0)*G5)</f>
+        <v>822</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>1004</v>
@@ -1901,16 +2175,21 @@
         <v>4</v>
       </c>
       <c r="E6" s="1">
-        <v>25400</v>
+        <v>18000</v>
       </c>
       <c r="F6" s="1">
         <v>4</v>
       </c>
       <c r="G6" s="1">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$B73</f>
+        <v>1096</v>
+      </c>
+      <c r="H6">
+        <f>INT(VLOOKUP(F6,[1]期望属性!$E$23:$F$38,2,0)*G6)</f>
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>1005</v>
@@ -1925,16 +2204,21 @@
         <v>5</v>
       </c>
       <c r="E7" s="1">
-        <v>36500</v>
+        <v>50000</v>
       </c>
       <c r="F7" s="1">
         <v>4</v>
       </c>
       <c r="G7" s="1">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$B74</f>
+        <v>1370</v>
+      </c>
+      <c r="H7">
+        <f>INT(VLOOKUP(F7,[1]期望属性!$E$23:$F$38,2,0)*G7)</f>
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>1006</v>
@@ -1953,10 +2237,15 @@
         <v>4</v>
       </c>
       <c r="G8" s="1">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$B75</f>
+        <v>1644</v>
+      </c>
+      <c r="H8">
+        <f>INT(VLOOKUP(F8,[1]期望属性!$E$23:$F$38,2,0)*G8)</f>
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <f>B9*1000+C9</f>
         <v>2001</v>
@@ -1972,16 +2261,21 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>4100</v>
+        <v>1500</v>
       </c>
       <c r="F9" s="1">
         <v>6</v>
       </c>
       <c r="G9" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$D70</f>
+        <v>153</v>
+      </c>
+      <c r="H9">
+        <f>INT(VLOOKUP(F9,[1]期望属性!$E$23:$F$38,2,0)*G9)</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>2002</v>
@@ -1997,16 +2291,21 @@
         <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>9200</v>
+        <v>3500</v>
       </c>
       <c r="F10" s="1">
         <v>6</v>
       </c>
       <c r="G10" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$D71</f>
+        <v>306</v>
+      </c>
+      <c r="H10">
+        <f>INT(VLOOKUP(F10,[1]期望属性!$E$23:$F$38,2,0)*G10)</f>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>2003</v>
@@ -2022,16 +2321,21 @@
         <v>3</v>
       </c>
       <c r="E11" s="1">
-        <v>16300</v>
+        <v>8000</v>
       </c>
       <c r="F11" s="1">
         <v>6</v>
       </c>
       <c r="G11" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$D72</f>
+        <v>459</v>
+      </c>
+      <c r="H11">
+        <f>INT(VLOOKUP(F11,[1]期望属性!$E$23:$F$38,2,0)*G11)</f>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>2004</v>
@@ -2047,16 +2351,21 @@
         <v>4</v>
       </c>
       <c r="E12" s="1">
-        <v>25400</v>
+        <v>20000</v>
       </c>
       <c r="F12" s="1">
         <v>6</v>
       </c>
       <c r="G12" s="1">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$D73</f>
+        <v>612</v>
+      </c>
+      <c r="H12">
+        <f>INT(VLOOKUP(F12,[1]期望属性!$E$23:$F$38,2,0)*G12)</f>
+        <v>471</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>2005</v>
@@ -2072,16 +2381,21 @@
         <v>5</v>
       </c>
       <c r="E13" s="1">
-        <v>36500</v>
+        <v>55000</v>
       </c>
       <c r="F13" s="1">
         <v>6</v>
       </c>
       <c r="G13" s="1">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$D74</f>
+        <v>765</v>
+      </c>
+      <c r="H13">
+        <f>INT(VLOOKUP(F13,[1]期望属性!$E$23:$F$38,2,0)*G13)</f>
+        <v>589</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>2006</v>
@@ -2101,10 +2415,15 @@
         <v>6</v>
       </c>
       <c r="G14" s="1">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$D75</f>
+        <v>918</v>
+      </c>
+      <c r="H14">
+        <f>INT(VLOOKUP(F14,[1]期望属性!$E$23:$F$38,2,0)*G14)</f>
+        <v>706</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>3001</v>
@@ -2120,16 +2439,21 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>4100</v>
+        <v>2000</v>
       </c>
       <c r="F15" s="1">
         <v>5</v>
       </c>
       <c r="G15" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$C70</f>
+        <v>274</v>
+      </c>
+      <c r="H15">
+        <f>INT(VLOOKUP(F15,[1]期望属性!$E$23:$F$38,2,0)*G15)</f>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>3002</v>
@@ -2145,16 +2469,21 @@
         <v>2</v>
       </c>
       <c r="E16" s="1">
-        <v>9200</v>
+        <v>4000</v>
       </c>
       <c r="F16" s="1">
         <v>5</v>
       </c>
       <c r="G16" s="1">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$C71</f>
+        <v>548</v>
+      </c>
+      <c r="H16">
+        <f>INT(VLOOKUP(F16,[1]期望属性!$E$23:$F$38,2,0)*G16)</f>
+        <v>548</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>3003</v>
@@ -2170,16 +2499,21 @@
         <v>3</v>
       </c>
       <c r="E17" s="1">
-        <v>16300</v>
+        <v>8500</v>
       </c>
       <c r="F17" s="1">
         <v>5</v>
       </c>
       <c r="G17" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$C72</f>
+        <v>822</v>
+      </c>
+      <c r="H17">
+        <f>INT(VLOOKUP(F17,[1]期望属性!$E$23:$F$38,2,0)*G17)</f>
+        <v>822</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>3004</v>
@@ -2195,16 +2529,21 @@
         <v>4</v>
       </c>
       <c r="E18" s="1">
-        <v>25400</v>
+        <v>20500</v>
       </c>
       <c r="F18" s="1">
         <v>5</v>
       </c>
       <c r="G18" s="1">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$C73</f>
+        <v>1096</v>
+      </c>
+      <c r="H18">
+        <f>INT(VLOOKUP(F18,[1]期望属性!$E$23:$F$38,2,0)*G18)</f>
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>3005</v>
@@ -2220,16 +2559,21 @@
         <v>5</v>
       </c>
       <c r="E19" s="1">
-        <v>36500</v>
+        <v>55500</v>
       </c>
       <c r="F19" s="1">
         <v>5</v>
       </c>
       <c r="G19" s="1">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$C74</f>
+        <v>1370</v>
+      </c>
+      <c r="H19">
+        <f>INT(VLOOKUP(F19,[1]期望属性!$E$23:$F$38,2,0)*G19)</f>
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>3006</v>
@@ -2249,10 +2593,15 @@
         <v>5</v>
       </c>
       <c r="G20" s="1">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$C75</f>
+        <v>1644</v>
+      </c>
+      <c r="H20">
+        <f>INT(VLOOKUP(F20,[1]期望属性!$E$23:$F$38,2,0)*G20)</f>
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>4001</v>
@@ -2268,16 +2617,21 @@
         <v>1</v>
       </c>
       <c r="E21" s="1">
-        <v>4100</v>
+        <v>2500</v>
       </c>
       <c r="F21" s="1">
         <v>7</v>
       </c>
       <c r="G21" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$E70</f>
+        <v>153</v>
+      </c>
+      <c r="H21">
+        <f>INT(VLOOKUP(F21,[1]期望属性!$E$23:$F$38,2,0)*G21)</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>4002</v>
@@ -2293,16 +2647,21 @@
         <v>2</v>
       </c>
       <c r="E22" s="1">
-        <v>9200</v>
+        <v>4500</v>
       </c>
       <c r="F22" s="1">
         <v>7</v>
       </c>
       <c r="G22" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$E71</f>
+        <v>306</v>
+      </c>
+      <c r="H22">
+        <f>INT(VLOOKUP(F22,[1]期望属性!$E$23:$F$38,2,0)*G22)</f>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>4003</v>
@@ -2318,16 +2677,21 @@
         <v>3</v>
       </c>
       <c r="E23" s="1">
-        <v>16300</v>
+        <v>9000</v>
       </c>
       <c r="F23" s="1">
         <v>7</v>
       </c>
       <c r="G23" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$E72</f>
+        <v>459</v>
+      </c>
+      <c r="H23">
+        <f>INT(VLOOKUP(F23,[1]期望属性!$E$23:$F$38,2,0)*G23)</f>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>4004</v>
@@ -2343,16 +2707,21 @@
         <v>4</v>
       </c>
       <c r="E24" s="1">
-        <v>25400</v>
+        <v>21000</v>
       </c>
       <c r="F24" s="1">
         <v>7</v>
       </c>
       <c r="G24" s="1">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$E73</f>
+        <v>612</v>
+      </c>
+      <c r="H24">
+        <f>INT(VLOOKUP(F24,[1]期望属性!$E$23:$F$38,2,0)*G24)</f>
+        <v>471</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>4005</v>
@@ -2368,16 +2737,21 @@
         <v>5</v>
       </c>
       <c r="E25" s="1">
-        <v>36500</v>
+        <v>56000</v>
       </c>
       <c r="F25" s="1">
         <v>7</v>
       </c>
       <c r="G25" s="1">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$E74</f>
+        <v>765</v>
+      </c>
+      <c r="H25">
+        <f>INT(VLOOKUP(F25,[1]期望属性!$E$23:$F$38,2,0)*G25)</f>
+        <v>589</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>4006</v>
@@ -2397,10 +2771,15 @@
         <v>7</v>
       </c>
       <c r="G26" s="1">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$E75</f>
+        <v>918</v>
+      </c>
+      <c r="H26">
+        <f>INT(VLOOKUP(F26,[1]期望属性!$E$23:$F$38,2,0)*G26)</f>
+        <v>706</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>5001</v>
@@ -2416,16 +2795,21 @@
         <v>1</v>
       </c>
       <c r="E27" s="1">
-        <v>4100</v>
+        <v>3000</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
       </c>
       <c r="G27" s="1">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$F70</f>
+        <v>7896</v>
+      </c>
+      <c r="H27">
+        <f>INT(VLOOKUP(F27,[1]期望属性!$E$23:$F$38,2,0)*G27)</f>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>5002</v>
@@ -2441,16 +2825,21 @@
         <v>2</v>
       </c>
       <c r="E28" s="1">
-        <v>9200</v>
+        <v>5000</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
       </c>
       <c r="G28" s="1">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$F71</f>
+        <v>15792</v>
+      </c>
+      <c r="H28">
+        <f>INT(VLOOKUP(F28,[1]期望属性!$E$23:$F$38,2,0)*G28)</f>
+        <v>852</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>5003</v>
@@ -2466,16 +2855,21 @@
         <v>3</v>
       </c>
       <c r="E29" s="1">
-        <v>16300</v>
+        <v>9500</v>
       </c>
       <c r="F29" s="1">
         <v>1</v>
       </c>
       <c r="G29" s="1">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$F72</f>
+        <v>23688</v>
+      </c>
+      <c r="H29">
+        <f>INT(VLOOKUP(F29,[1]期望属性!$E$23:$F$38,2,0)*G29)</f>
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>5004</v>
@@ -2491,16 +2885,21 @@
         <v>4</v>
       </c>
       <c r="E30" s="1">
-        <v>25400</v>
+        <v>21500</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
       </c>
       <c r="G30" s="1">
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$F73</f>
+        <v>31584</v>
+      </c>
+      <c r="H30">
+        <f>INT(VLOOKUP(F30,[1]期望属性!$E$23:$F$38,2,0)*G30)</f>
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>5005</v>
@@ -2516,16 +2915,21 @@
         <v>5</v>
       </c>
       <c r="E31" s="1">
-        <v>36500</v>
+        <v>56500</v>
       </c>
       <c r="F31" s="1">
         <v>1</v>
       </c>
       <c r="G31" s="1">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$F74</f>
+        <v>39480</v>
+      </c>
+      <c r="H31">
+        <f>INT(VLOOKUP(F31,[1]期望属性!$E$23:$F$38,2,0)*G31)</f>
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>5006</v>
@@ -2545,10 +2949,15 @@
         <v>1</v>
       </c>
       <c r="G32" s="1">
-        <v>54000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$F75</f>
+        <v>47376</v>
+      </c>
+      <c r="H32">
+        <f>INT(VLOOKUP(F32,[1]期望属性!$E$23:$F$38,2,0)*G32)</f>
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>6001</v>
@@ -2564,16 +2973,21 @@
         <v>1</v>
       </c>
       <c r="E33" s="1">
-        <v>4100</v>
+        <v>3500</v>
       </c>
       <c r="F33" s="1">
         <v>23</v>
       </c>
       <c r="G33" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$H70</f>
+        <v>94</v>
+      </c>
+      <c r="H33">
+        <f>INT(VLOOKUP(F33,[1]期望属性!$E$23:$F$38,2,0)*G33)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>6002</v>
@@ -2589,16 +3003,21 @@
         <v>2</v>
       </c>
       <c r="E34" s="1">
-        <v>9200</v>
+        <v>5500</v>
       </c>
       <c r="F34" s="1">
         <v>23</v>
       </c>
       <c r="G34" s="1">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$H71</f>
+        <v>188</v>
+      </c>
+      <c r="H34">
+        <f>INT(VLOOKUP(F34,[1]期望属性!$E$23:$F$38,2,0)*G34)</f>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
         <v>6003</v>
@@ -2614,16 +3033,21 @@
         <v>3</v>
       </c>
       <c r="E35" s="1">
-        <v>16300</v>
+        <v>10000</v>
       </c>
       <c r="F35" s="1">
         <v>23</v>
       </c>
       <c r="G35" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$H72</f>
+        <v>282</v>
+      </c>
+      <c r="H35">
+        <f>INT(VLOOKUP(F35,[1]期望属性!$E$23:$F$38,2,0)*G35)</f>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
         <v>6004</v>
@@ -2639,16 +3063,21 @@
         <v>4</v>
       </c>
       <c r="E36" s="1">
-        <v>25400</v>
+        <v>22000</v>
       </c>
       <c r="F36" s="1">
         <v>23</v>
       </c>
       <c r="G36" s="1">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$H73</f>
+        <v>376</v>
+      </c>
+      <c r="H36">
+        <f>INT(VLOOKUP(F36,[1]期望属性!$E$23:$F$38,2,0)*G36)</f>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
         <v>6005</v>
@@ -2664,16 +3093,21 @@
         <v>5</v>
       </c>
       <c r="E37" s="1">
-        <v>36500</v>
+        <v>57000</v>
       </c>
       <c r="F37" s="1">
         <v>23</v>
       </c>
       <c r="G37" s="1">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$H74</f>
+        <v>470</v>
+      </c>
+      <c r="H37">
+        <f>INT(VLOOKUP(F37,[1]期望属性!$E$23:$F$38,2,0)*G37)</f>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
         <v>6006</v>
@@ -2693,10 +3127,15 @@
         <v>23</v>
       </c>
       <c r="G38" s="1">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$H75</f>
+        <v>564</v>
+      </c>
+      <c r="H38">
+        <f>INT(VLOOKUP(F38,[1]期望属性!$E$23:$F$38,2,0)*G38)</f>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <f t="shared" si="0"/>
         <v>7001</v>
@@ -2712,16 +3151,21 @@
         <v>1</v>
       </c>
       <c r="E39" s="1">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="F39" s="1">
         <v>3</v>
       </c>
       <c r="G39" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$G70</f>
+        <v>296</v>
+      </c>
+      <c r="H39">
+        <f>INT(VLOOKUP(F39,[1]期望属性!$E$23:$F$38,2,0)*G39)</f>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
         <v>7002</v>
@@ -2737,16 +3181,21 @@
         <v>2</v>
       </c>
       <c r="E40" s="1">
-        <v>9200</v>
+        <v>6000</v>
       </c>
       <c r="F40" s="1">
         <v>3</v>
       </c>
       <c r="G40" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$G71</f>
+        <v>592</v>
+      </c>
+      <c r="H40">
+        <f>INT(VLOOKUP(F40,[1]期望属性!$E$23:$F$38,2,0)*G40)</f>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <f t="shared" si="0"/>
         <v>7003</v>
@@ -2762,16 +3211,21 @@
         <v>3</v>
       </c>
       <c r="E41" s="1">
-        <v>16300</v>
+        <v>10500</v>
       </c>
       <c r="F41" s="1">
         <v>3</v>
       </c>
       <c r="G41" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$G72</f>
+        <v>888</v>
+      </c>
+      <c r="H41">
+        <f>INT(VLOOKUP(F41,[1]期望属性!$E$23:$F$38,2,0)*G41)</f>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <f t="shared" si="0"/>
         <v>7004</v>
@@ -2787,16 +3241,21 @@
         <v>4</v>
       </c>
       <c r="E42" s="1">
-        <v>25400</v>
+        <v>22500</v>
       </c>
       <c r="F42" s="1">
         <v>3</v>
       </c>
       <c r="G42" s="1">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$G73</f>
+        <v>1184</v>
+      </c>
+      <c r="H42">
+        <f>INT(VLOOKUP(F42,[1]期望属性!$E$23:$F$38,2,0)*G42)</f>
+        <v>592</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <f t="shared" si="0"/>
         <v>7005</v>
@@ -2812,16 +3271,21 @@
         <v>5</v>
       </c>
       <c r="E43" s="1">
-        <v>36500</v>
+        <v>57500</v>
       </c>
       <c r="F43" s="1">
         <v>3</v>
       </c>
       <c r="G43" s="1">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$G74</f>
+        <v>1480</v>
+      </c>
+      <c r="H43">
+        <f>INT(VLOOKUP(F43,[1]期望属性!$E$23:$F$38,2,0)*G43)</f>
+        <v>740</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <f t="shared" si="0"/>
         <v>7006</v>
@@ -2841,19 +3305,27 @@
         <v>3</v>
       </c>
       <c r="G44" s="1">
-        <v>2160</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+        <f>[1]佣兵!$G75</f>
+        <v>1776</v>
+      </c>
+      <c r="H44">
+        <f>INT(VLOOKUP(F44,[1]期望属性!$E$23:$F$38,2,0)*G44)</f>
+        <v>888</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="E45" s="1">
+        <f>SUM(E3:E43)</f>
+        <v>645000</v>
+      </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2862,19 +3334,25 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="C47" s="1">
+        <f>91500*7</f>
+        <v>640500</v>
+      </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="C48" s="1">
+        <f>C47/1000</f>
+        <v>640.5</v>
+      </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2930,18 +3408,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
 </file>